--- a/files/optionsFile.xlsx
+++ b/files/optionsFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Python\pyExcel\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6492E042-2601-4165-ACCC-7267847E84B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6E398E-F55C-4CAC-A216-C29B7E51717A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2100" windowWidth="15375" windowHeight="7995" xr2:uid="{3D7ABA94-5FFF-4861-8E7D-EBE81B9D8F0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3D7ABA94-5FFF-4861-8E7D-EBE81B9D8F0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ChartOfAccounts" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA96CCA2-85A2-4F6A-8409-CED12BD4DB81}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,21 +632,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7100</v>
+        <v>7901</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7102</v>
+        <v>7100</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7200</v>
+        <v>7104</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -687,21 +687,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7306</v>
+        <v>7200</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7308</v>
+        <v>7307</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7309</v>
+        <v>7308</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7311</v>
+        <v>7310</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7315</v>
+        <v>7313</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -786,21 +786,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7317</v>
+        <v>7315</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7318</v>
+        <v>7317</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7500</v>
+        <v>7318</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7501</v>
+        <v>7500</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7502</v>
+        <v>7501</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7550</v>
+        <v>7502</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7551</v>
+        <v>7550</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>7552</v>
+        <v>7551</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>7553</v>
+        <v>7552</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>7600</v>
+        <v>7553</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7601</v>
+        <v>7600</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7604</v>
+        <v>7601</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7606</v>
+        <v>7604</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7700</v>
+        <v>7606</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7701</v>
+        <v>7700</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7703</v>
+        <v>7701</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7801</v>
+        <v>7703</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7901</v>
+        <v>7801</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
